--- a/PLDI-2012/raw_data/fuzz2/Fuzz_Results.xlsx
+++ b/PLDI-2012/raw_data/fuzz2/Fuzz_Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="20220" yWindow="300" windowWidth="28240" windowHeight="24880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,96 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="21">
+  <si>
+    <t>spreadsheet number</t>
+  </si>
+  <si>
+    <t>Checkcel ID error?</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>cell transposition</t>
+  </si>
+  <si>
+    <t>magnitude error</t>
+  </si>
+  <si>
+    <t>typo</t>
+  </si>
+  <si>
+    <t>typo, sign</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>Error Types</t>
+  </si>
+  <si>
+    <t>magnitude, sign</t>
+  </si>
+  <si>
+    <t>magnitude</t>
+  </si>
+  <si>
+    <t>sign, magnitude</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>character transposition</t>
+  </si>
+  <si>
+    <t>sign, cell transposition</t>
+  </si>
+  <si>
+    <t>magnitude, character transposition</t>
+  </si>
+  <si>
+    <t>exclude</t>
+  </si>
+  <si>
+    <t>no errors</t>
+  </si>
+  <si>
+    <t>% maximum relative error</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,13 +130,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -382,13 +478,670 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>24</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>21</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>18</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>16</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>13</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>9</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/PLDI-2012/raw_data/fuzz2/Fuzz_Results.xlsx
+++ b/PLDI-2012/raw_data/fuzz2/Fuzz_Results.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="19820" yWindow="1920" windowWidth="28240" windowHeight="24880" tabRatio="500"/>
+    <workbookView xWindow="19815" yWindow="1920" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="17">
   <si>
     <t>spreadsheet number</t>
   </si>
@@ -76,7 +71,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -107,6 +102,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -125,7 +129,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -139,30 +143,300 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="142">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_INCSTMT" xfId="13"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -488,23 +762,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -523,8 +797,11 @@
       <c r="F1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -537,8 +814,14 @@
       <c r="D2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2">
+        <v>0.157377724</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -551,8 +834,14 @@
       <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3">
+        <v>0.157377724</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -565,8 +854,14 @@
       <c r="D4" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4">
+        <v>0.100210432</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -579,9 +874,14 @@
       <c r="D5" s="3">
         <v>2.9899286615080699E-6</v>
       </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" s="1">
+        <v>8.7760900000000001E-7</v>
+      </c>
+      <c r="G5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -594,8 +894,14 @@
       <c r="D6" s="3">
         <v>1.10115308576392</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6">
+        <v>0.55687823199999997</v>
+      </c>
+      <c r="G6" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -608,8 +914,14 @@
       <c r="D7" s="2">
         <v>9.0000100566538705</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7">
+        <v>0.10021055500000001</v>
+      </c>
+      <c r="G7" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -622,8 +934,14 @@
       <c r="D8" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8">
+        <v>5.0119850000000001E-2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -636,8 +954,14 @@
       <c r="D9" s="2">
         <v>8.9660834072038202</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9">
+        <v>0.71440184100000004</v>
+      </c>
+      <c r="G9" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -650,8 +974,14 @@
       <c r="D10" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10">
+        <v>0.16574038099999999</v>
+      </c>
+      <c r="G10" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -664,8 +994,14 @@
       <c r="D11" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11">
+        <v>4.9807542000000003E-2</v>
+      </c>
+      <c r="G11" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -678,8 +1014,14 @@
       <c r="D12" s="2">
         <v>9.0004634945626698</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12">
+        <v>5.9621820999999998E-2</v>
+      </c>
+      <c r="G12" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -692,8 +1034,14 @@
       <c r="D13" s="2">
         <v>9.0005398675934298</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13">
+        <v>8.6894763999999999E-2</v>
+      </c>
+      <c r="G13" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -706,8 +1054,14 @@
       <c r="D14" s="2">
         <v>1.18025534932016E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14" s="1">
+        <v>1.04873E-6</v>
+      </c>
+      <c r="G14" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -720,8 +1074,14 @@
       <c r="D15" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15">
+        <v>0.16574038099999999</v>
+      </c>
+      <c r="G15" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -734,8 +1094,14 @@
       <c r="D16" s="2">
         <v>8.9999998490157704</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="F16">
+        <v>3.7340353E-2</v>
+      </c>
+      <c r="G16" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -748,8 +1114,14 @@
       <c r="D17" s="2">
         <v>9.9216236691627405E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="F17" s="1">
+        <v>1.15494E-5</v>
+      </c>
+      <c r="G17" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -762,8 +1134,14 @@
       <c r="D18" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="F18">
+        <v>0.37646123100000001</v>
+      </c>
+      <c r="G18" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -776,8 +1154,14 @@
       <c r="D19" s="2">
         <v>0.89999797410873195</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="F19">
+        <v>0.64363767299999997</v>
+      </c>
+      <c r="G19" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -790,9 +1174,14 @@
       <c r="D20" s="2">
         <v>2.9451801716129699E-3</v>
       </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="F20" s="1">
+        <v>5.9236800000000002E-4</v>
+      </c>
+      <c r="G20" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -805,9 +1194,14 @@
       <c r="D21" s="3">
         <v>7.3422832638507003E-10</v>
       </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="F21" s="1">
+        <v>8.7760900000000001E-7</v>
+      </c>
+      <c r="G21" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -823,9 +1217,14 @@
       <c r="E22" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="F22" s="1">
+        <v>0.68441039199999998</v>
+      </c>
+      <c r="G22" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -838,9 +1237,14 @@
       <c r="D23" s="3">
         <v>5.0187252356114899E-5</v>
       </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="F23" s="1">
+        <v>8.7760900000000001E-7</v>
+      </c>
+      <c r="G23" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -853,8 +1257,14 @@
       <c r="D24" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="F24">
+        <v>0.15189332899999999</v>
+      </c>
+      <c r="G24" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -867,8 +1277,14 @@
       <c r="D25" s="2">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="F25">
+        <v>5.2246250000000001E-3</v>
+      </c>
+      <c r="G25" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -881,8 +1297,14 @@
       <c r="D26" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="F26">
+        <v>0.90489648899999997</v>
+      </c>
+      <c r="G26" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -895,8 +1317,14 @@
       <c r="D27" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="F27">
+        <v>0.821469805</v>
+      </c>
+      <c r="G27" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -912,8 +1340,14 @@
       <c r="E28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="F28">
+        <v>3.8194894E-2</v>
+      </c>
+      <c r="G28" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -926,8 +1360,14 @@
       <c r="D29" s="2">
         <v>5.0357687164191103E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="F29">
+        <v>5.4602721E-2</v>
+      </c>
+      <c r="G29" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -940,8 +1380,14 @@
       <c r="D30" s="2">
         <v>1.0000000010000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="F30">
+        <v>0.84887080999999998</v>
+      </c>
+      <c r="G30" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -954,8 +1400,14 @@
       <c r="D31" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="F31">
+        <v>0.90621540499999997</v>
+      </c>
+      <c r="G31" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -968,8 +1420,14 @@
       <c r="D32" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="F32">
+        <v>0.94511669399999998</v>
+      </c>
+      <c r="G32" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -982,8 +1440,14 @@
       <c r="D33" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="F33">
+        <v>0.90489648899999997</v>
+      </c>
+      <c r="G33" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -996,8 +1460,14 @@
       <c r="D34" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="F34">
+        <v>1.059362468</v>
+      </c>
+      <c r="G34" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1010,8 +1480,14 @@
       <c r="D35" s="3">
         <v>9.0000001600903001</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="F35">
+        <v>1.017624772</v>
+      </c>
+      <c r="G35" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1024,8 +1500,14 @@
       <c r="D36" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="F36">
+        <v>1.0572717469999999</v>
+      </c>
+      <c r="G36" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1038,8 +1520,14 @@
       <c r="D37" s="3">
         <v>8.9998371083728905</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="F37">
+        <v>0.91654490600000005</v>
+      </c>
+      <c r="G37" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1052,8 +1540,14 @@
       <c r="D38" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="F38">
+        <v>1.0116364040000001</v>
+      </c>
+      <c r="G38" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1066,8 +1560,14 @@
       <c r="D39" s="2">
         <v>9.0000004409424399</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="F39">
+        <v>1.0044851690000001</v>
+      </c>
+      <c r="G39" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1080,8 +1580,14 @@
       <c r="D40" s="2">
         <v>9.0019202449628999</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="F40">
+        <v>0.82254533399999996</v>
+      </c>
+      <c r="G40" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1094,8 +1600,14 @@
       <c r="D41" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="F41">
+        <v>2.3266257760000002</v>
+      </c>
+      <c r="G41" s="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1108,8 +1620,14 @@
       <c r="D42" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="F42">
+        <v>0.72479663699999997</v>
+      </c>
+      <c r="G42" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1122,8 +1640,14 @@
       <c r="D43" s="2">
         <v>9.0028783576232794</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="F43">
+        <v>8.3238160370000003</v>
+      </c>
+      <c r="G43" s="5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1136,8 +1660,14 @@
       <c r="D44" s="2">
         <v>9.0040264512215096</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="F44">
+        <v>1.0180550189999999</v>
+      </c>
+      <c r="G44" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1150,8 +1680,14 @@
       <c r="D45" s="2">
         <v>0.90028783576232796</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="F45">
+        <v>7.1643699000000005E-2</v>
+      </c>
+      <c r="G45" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1164,8 +1700,14 @@
       <c r="D46" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="F46">
+        <v>0.74885386399999998</v>
+      </c>
+      <c r="G46" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1178,8 +1720,14 @@
       <c r="D47" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="F47">
+        <v>0.74885386399999998</v>
+      </c>
+      <c r="G47" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1192,9 +1740,14 @@
       <c r="D48" s="2">
         <v>2</v>
       </c>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="F48" s="1">
+        <v>1.198562097468354</v>
+      </c>
+      <c r="G48" s="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1207,8 +1760,14 @@
       <c r="D49" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="F49">
+        <v>1.198562097468354</v>
+      </c>
+      <c r="G49" s="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1221,9 +1780,14 @@
       <c r="D50" s="3">
         <v>0.99000000005295297</v>
       </c>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="F50" s="1">
+        <v>1.4046490520191959</v>
+      </c>
+      <c r="G50" s="5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1236,8 +1800,14 @@
       <c r="D51" s="3">
         <v>8.9999999954019803</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="F51">
+        <v>1.0550820035837367</v>
+      </c>
+      <c r="G51" s="5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1250,8 +1820,14 @@
       <c r="D52" s="3">
         <v>6.8367544006825799E-6</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="F52">
+        <v>1.2077361287285202</v>
+      </c>
+      <c r="G52" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1264,8 +1840,14 @@
       <c r="D53" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="F53" s="6">
+        <v>1.198562097468354</v>
+      </c>
+      <c r="G53" s="5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1277,6 +1859,12 @@
       </c>
       <c r="D54" s="2">
         <v>2</v>
+      </c>
+      <c r="F54" s="4">
+        <v>1.198562097468354</v>
+      </c>
+      <c r="G54" s="5">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1285,10 +1873,5 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>